--- a/TODO/1-Saturday/Marketing.xlsx
+++ b/TODO/1-Saturday/Marketing.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="23820" windowHeight="10620" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="23820" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="Maketing Plan" sheetId="1" r:id="rId1"/>
     <sheet name="Break Even" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>Promotional Effort</t>
   </si>
@@ -32,18 +35,12 @@
     <t>Reddit</t>
   </si>
   <si>
-    <t>Savey.com</t>
-  </si>
-  <si>
     <t>Bitcoin conference</t>
   </si>
   <si>
     <t>LinkedIn</t>
   </si>
   <si>
-    <t>Freelance sites</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Daily Volumn</t>
-  </si>
-  <si>
-    <t>Daily Revenue</t>
-  </si>
-  <si>
     <t>Marketing Plan</t>
   </si>
   <si>
@@ -102,12 +93,63 @@
   </si>
   <si>
     <t>Mazine</t>
+  </si>
+  <si>
+    <t>per year</t>
+  </si>
+  <si>
+    <t>per quarter</t>
+  </si>
+  <si>
+    <t>per platform</t>
+  </si>
+  <si>
+    <t>target users</t>
+  </si>
+  <si>
+    <t>annual rev</t>
+  </si>
+  <si>
+    <t>from social</t>
+  </si>
+  <si>
+    <t>from conference</t>
+  </si>
+  <si>
+    <t>from print</t>
+  </si>
+  <si>
+    <t>from email</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>annual per user</t>
+  </si>
+  <si>
+    <t>Anual Revenue</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Averege Annual Revenue per User</t>
+  </si>
+  <si>
+    <t>*Average annual revenue per user based on data from www.coinbase.com</t>
+  </si>
+  <si>
+    <t>Days to break even</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +207,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,11 +237,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,18 +267,97 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -517,24 +653,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T13"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="31.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
     <col min="11" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="23.5703125" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
@@ -543,100 +679,135 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="15"/>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="19">
+        <f>N3</f>
+        <v>18400</v>
+      </c>
+      <c r="D3" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E3" s="18">
+        <v>9.85</v>
+      </c>
+      <c r="F3" s="20">
+        <f>E3*D3</f>
+        <v>160062.5</v>
+      </c>
+      <c r="G3" s="19">
+        <f>(C3/F3)*365</f>
+        <v>41.958609918000782</v>
+      </c>
+      <c r="H3" s="15"/>
       <c r="I3" s="3" t="str">
         <f>B3</f>
         <v>Facebook</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="J3" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N3" s="3">
+        <f>SUM(J3:M3)</f>
+        <v>18400</v>
+      </c>
       <c r="P3" s="3" t="str">
         <f>B3</f>
         <v>Facebook</v>
@@ -646,26 +817,52 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="C4" s="19">
+        <f>N4</f>
+        <v>18400</v>
+      </c>
+      <c r="D4" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E4" s="18">
+        <v>9.85</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4:F10" si="0">E4*D4</f>
+        <v>160062.5</v>
+      </c>
+      <c r="G4" s="19">
+        <f>(C4/F4)*365</f>
+        <v>41.958609918000782</v>
+      </c>
+      <c r="H4" s="15"/>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I12" si="0">B4</f>
+        <f t="shared" ref="I4:I10" si="1">B4</f>
         <v>Twitter</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="J4" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N4" s="3">
+        <f>SUM(J4:M4)</f>
+        <v>18400</v>
+      </c>
       <c r="P4" s="3" t="str">
-        <f t="shared" ref="P4:P12" si="1">B4</f>
+        <f t="shared" ref="P4:P12" si="2">B4</f>
         <v>Twitter</v>
       </c>
       <c r="Q4" s="3"/>
@@ -673,26 +870,52 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="19">
+        <f>N5</f>
+        <v>18400</v>
+      </c>
+      <c r="D5" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E5" s="18">
+        <v>9.85</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="0"/>
+        <v>160062.5</v>
+      </c>
+      <c r="G5" s="19">
+        <f>(C5/F5)*365</f>
+        <v>41.958609918000782</v>
+      </c>
+      <c r="H5" s="15"/>
       <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Reddit</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="J5" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N5" s="3">
+        <f>SUM(J5:M5)</f>
+        <v>18400</v>
+      </c>
       <c r="P5" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Reddit</v>
       </c>
       <c r="Q5" s="3"/>
@@ -700,53 +923,105 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+    <row r="6" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19">
+        <f>N6</f>
+        <v>18400</v>
+      </c>
+      <c r="D6" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E6" s="18">
+        <v>9.85</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>160062.5</v>
+      </c>
+      <c r="G6" s="19">
+        <f>(C6/F6)*365</f>
+        <v>41.958609918000782</v>
+      </c>
+      <c r="H6" s="15"/>
       <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Savey.com</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+        <f t="shared" si="1"/>
+        <v>LinkedIn</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L6" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M6" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N6" s="3">
+        <f>SUM(J6:M6)</f>
+        <v>18400</v>
+      </c>
       <c r="P6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Savey.com</v>
+        <f t="shared" si="2"/>
+        <v>LinkedIn</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+    <row r="7" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19">
+        <f>N7</f>
+        <v>8000</v>
+      </c>
+      <c r="D7" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="18">
+        <v>9.85</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>197000</v>
+      </c>
+      <c r="G7" s="19">
+        <f>(C7/F7)*365</f>
+        <v>14.82233502538071</v>
+      </c>
+      <c r="H7" s="15"/>
       <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Bitcoin conference</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="J7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="3">
+        <f>SUM(J7:M7)</f>
+        <v>8000</v>
+      </c>
       <c r="P7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Bitcoin conference</v>
       </c>
       <c r="Q7" s="3"/>
@@ -754,80 +1029,158 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+    <row r="8" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="19">
+        <f>N8</f>
+        <v>20000</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="18">
+        <v>9.85</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>24625</v>
+      </c>
+      <c r="G8" s="19">
+        <f>(C8/F8)*365</f>
+        <v>296.4467005076142</v>
+      </c>
+      <c r="H8" s="15"/>
       <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>LinkedIn</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+        <f t="shared" si="1"/>
+        <v>Magazine</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="3">
+        <f>SUM(J8:M8)</f>
+        <v>20000</v>
+      </c>
       <c r="P8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>LinkedIn</v>
+        <f t="shared" si="2"/>
+        <v>Magazine</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+    <row r="9" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="19">
+        <f>N9</f>
+        <v>20000</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="18">
+        <v>9.85</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>24625</v>
+      </c>
+      <c r="G9" s="19">
+        <f>(C9/F9)*365</f>
+        <v>296.4467005076142</v>
+      </c>
+      <c r="H9" s="15"/>
       <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Freelance sites</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+        <f t="shared" si="1"/>
+        <v>News paper</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N9" s="3">
+        <f>SUM(J9:M9)</f>
+        <v>20000</v>
+      </c>
       <c r="P9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Freelance sites</v>
+        <f t="shared" si="2"/>
+        <v>News paper</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+    <row r="10" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="19">
+        <f>N10</f>
+        <v>4000</v>
+      </c>
+      <c r="D10" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="18">
+        <v>9.85</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
+        <v>98500</v>
+      </c>
+      <c r="G10" s="19">
+        <f>(C10/F10)*365</f>
+        <v>14.82233502538071</v>
+      </c>
+      <c r="H10" s="15"/>
       <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Email</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="J10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="3">
+        <f>SUM(J10:M10)</f>
+        <v>4000</v>
+      </c>
       <c r="P10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Email</v>
       </c>
       <c r="Q10" s="3"/>
@@ -835,86 +1188,201 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Magazine</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Magazine</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>News paper</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="P12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>News paper</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="5">
-        <f>SUM(J3:J12)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <f>SUM(K3:K12)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <f>SUM(L3:L12)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <f>SUM(M3:M12)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <f>SUM(N3:N12)</f>
-        <v>0</v>
+    <row r="11" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="23">
+        <f>SUM(C3:C10)</f>
+        <v>125600</v>
+      </c>
+      <c r="D11" s="23">
+        <f>SUM(D3:D10)</f>
+        <v>100000</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="24">
+        <f>SUM(F3:F10)</f>
+        <v>985000</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5">
+        <f>SUM(J3:J10)</f>
+        <v>31400</v>
+      </c>
+      <c r="K11" s="5">
+        <f>SUM(K3:K10)</f>
+        <v>31400</v>
+      </c>
+      <c r="L11" s="5">
+        <f>SUM(L3:L10)</f>
+        <v>31400</v>
+      </c>
+      <c r="M11" s="5">
+        <f>SUM(M3:M10)</f>
+        <v>31400</v>
+      </c>
+      <c r="N11" s="5">
+        <f>SUM(N3:N10)</f>
+        <v>125600</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="15"/>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>*Average annual revenue per user based on data from www.coinbase.com</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C13/4</f>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8">
+        <f>C14/4</f>
+        <v>4687.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="8">
+        <f>C$17*D19</f>
+        <v>65000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E19" s="1">
+        <f>C19/4</f>
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8">
+        <f>C$17*D20</f>
+        <v>20000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8">
+        <f>C$17*D21</f>
+        <v>5000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8">
+        <f>C$17*D22</f>
+        <v>10000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="1">
+        <f>SUM(D19:D22)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="8">
+        <v>985500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="8">
+        <f>C17</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="11">
+        <f>C25/C26</f>
+        <v>9.8550000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="10">
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:G12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -924,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11:L16"/>
     </sheetView>
   </sheetViews>
@@ -944,229 +1412,229 @@
   <sheetData>
     <row r="1" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="K3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="K7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="6"/>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="K11" s="6" t="s">
+      <c r="C13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="K12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="K14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="K15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="7"/>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="K16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/TODO/1-Saturday/Marketing.xlsx
+++ b/TODO/1-Saturday/Marketing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="23820" windowHeight="10620"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19320" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="Maketing Plan" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
   <si>
     <t>Promotional Effort</t>
   </si>
@@ -83,15 +83,9 @@
     <t>Expected Customers</t>
   </si>
   <si>
-    <t>Daily Volume</t>
-  </si>
-  <si>
     <t>Daily Renue</t>
   </si>
   <si>
-    <t>Break Even</t>
-  </si>
-  <si>
     <t>Mazine</t>
   </si>
   <si>
@@ -141,14 +135,27 @@
   </si>
   <si>
     <t>Days to break even</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Daily Revenue</t>
+  </si>
+  <si>
+    <t>monlth average per user</t>
+  </si>
+  <si>
+    <t>monlth avertising</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -250,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,9 +277,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,7 +286,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,16 +316,31 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,43 +672,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="7"/>
+    <col min="14" max="14" width="11.42578125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="23.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="20" width="13" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
@@ -710,591 +729,662 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>17</v>
+      <c r="Q2" s="25">
+        <v>43009</v>
+      </c>
+      <c r="R2" s="25">
+        <v>43101</v>
+      </c>
+      <c r="S2" s="25">
+        <v>43191</v>
+      </c>
+      <c r="T2" s="25">
+        <v>43282</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19">
-        <f>N3</f>
+      <c r="C3" s="18">
+        <f t="shared" ref="C3:C10" si="0">N3</f>
         <v>18400</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>16250</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>9.85</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f>E3*D3</f>
         <v>160062.5</v>
       </c>
-      <c r="G3" s="19">
-        <f>(C3/F3)*365</f>
+      <c r="G3" s="18">
+        <f t="shared" ref="G3:G10" si="1">(C3/F3)*365</f>
         <v>41.958609918000782</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="3" t="str">
         <f>B3</f>
         <v>Facebook</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="23">
         <v>4600</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="23">
         <v>4600</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="23">
         <v>4600</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="23">
         <v>4600</v>
       </c>
-      <c r="N3" s="3">
-        <f>SUM(J3:M3)</f>
+      <c r="N3" s="23">
+        <f t="shared" ref="N3:N10" si="2">SUM(J3:M3)</f>
         <v>18400</v>
       </c>
       <c r="P3" s="3" t="str">
         <f>B3</f>
         <v>Facebook</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19">
-        <f>N4</f>
+      <c r="C4" s="18">
+        <f t="shared" si="0"/>
         <v>18400</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>16250</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>9.85</v>
       </c>
-      <c r="F4" s="20">
-        <f t="shared" ref="F4:F10" si="0">E4*D4</f>
+      <c r="F4" s="19">
+        <f t="shared" ref="F4:F10" si="3">E4*D4</f>
         <v>160062.5</v>
       </c>
-      <c r="G4" s="19">
-        <f>(C4/F4)*365</f>
+      <c r="G4" s="18">
+        <f t="shared" si="1"/>
         <v>41.958609918000782</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I10" si="1">B4</f>
+        <f t="shared" ref="I4:I10" si="4">B4</f>
         <v>Twitter</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="23">
         <v>4600</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="23">
         <v>4600</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="23">
         <v>4600</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="23">
         <v>4600</v>
       </c>
-      <c r="N4" s="3">
-        <f>SUM(J4:M4)</f>
+      <c r="N4" s="23">
+        <f t="shared" si="2"/>
         <v>18400</v>
       </c>
       <c r="P4" s="3" t="str">
-        <f t="shared" ref="P4:P12" si="2">B4</f>
+        <f t="shared" ref="P4:P12" si="5">B4</f>
         <v>Twitter</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19">
-        <f>N5</f>
+      <c r="C5" s="18">
+        <f t="shared" si="0"/>
         <v>18400</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>16250</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>9.85</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
+        <f t="shared" si="3"/>
+        <v>160062.5</v>
+      </c>
+      <c r="G5" s="18">
+        <f t="shared" si="1"/>
+        <v>41.958609918000782</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Reddit</v>
+      </c>
+      <c r="J5" s="23">
+        <v>4600</v>
+      </c>
+      <c r="K5" s="23">
+        <v>4600</v>
+      </c>
+      <c r="L5" s="23">
+        <v>4600</v>
+      </c>
+      <c r="M5" s="23">
+        <v>4600</v>
+      </c>
+      <c r="N5" s="23">
+        <f t="shared" si="2"/>
+        <v>18400</v>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Reddit</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
+        <v>18400</v>
+      </c>
+      <c r="D6" s="18">
+        <v>16250</v>
+      </c>
+      <c r="E6" s="17">
+        <v>9.85</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="3"/>
         <v>160062.5</v>
       </c>
-      <c r="G5" s="19">
-        <f>(C5/F5)*365</f>
+      <c r="G6" s="18">
+        <f t="shared" si="1"/>
         <v>41.958609918000782</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="3" t="str">
+      <c r="H6" s="14"/>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>LinkedIn</v>
+      </c>
+      <c r="J6" s="23">
+        <v>4600</v>
+      </c>
+      <c r="K6" s="23">
+        <v>4600</v>
+      </c>
+      <c r="L6" s="23">
+        <v>4600</v>
+      </c>
+      <c r="M6" s="23">
+        <v>4600</v>
+      </c>
+      <c r="N6" s="23">
+        <f t="shared" si="2"/>
+        <v>18400</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>LinkedIn</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="17">
+        <v>9.85</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="3"/>
+        <v>197000</v>
+      </c>
+      <c r="G7" s="18">
         <f t="shared" si="1"/>
-        <v>Reddit</v>
-      </c>
-      <c r="J5" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L5" s="3">
-        <v>4600</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4600</v>
-      </c>
-      <c r="N5" s="3">
-        <f>SUM(J5:M5)</f>
-        <v>18400</v>
-      </c>
-      <c r="P5" s="3" t="str">
+        <v>14.82233502538071</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Bitcoin conference</v>
+      </c>
+      <c r="J7" s="23">
+        <v>2000</v>
+      </c>
+      <c r="K7" s="23">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="23">
+        <v>2000</v>
+      </c>
+      <c r="M7" s="23">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="23">
         <f t="shared" si="2"/>
-        <v>Reddit</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="19">
-        <f>N6</f>
-        <v>18400</v>
-      </c>
-      <c r="D6" s="19">
-        <v>16250</v>
-      </c>
-      <c r="E6" s="18">
+        <v>8000</v>
+      </c>
+      <c r="P7" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Bitcoin conference</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="17">
         <v>9.85</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F8" s="19">
+        <f t="shared" si="3"/>
+        <v>24625</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="1"/>
+        <v>296.4467005076142</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Magazine</v>
+      </c>
+      <c r="J8" s="23">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="23">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="23">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="23">
+        <v>5000</v>
+      </c>
+      <c r="N8" s="23">
+        <f t="shared" si="2"/>
+        <v>20000</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Magazine</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
-        <v>160062.5</v>
-      </c>
-      <c r="G6" s="19">
-        <f>(C6/F6)*365</f>
-        <v>41.958609918000782</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="3" t="str">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="17">
+        <v>9.85</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="3"/>
+        <v>24625</v>
+      </c>
+      <c r="G9" s="18">
         <f t="shared" si="1"/>
-        <v>LinkedIn</v>
-      </c>
-      <c r="J6" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K6" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L6" s="3">
-        <v>4600</v>
-      </c>
-      <c r="M6" s="3">
-        <v>4600</v>
-      </c>
-      <c r="N6" s="3">
-        <f>SUM(J6:M6)</f>
-        <v>18400</v>
-      </c>
-      <c r="P6" s="3" t="str">
+        <v>296.4467005076142</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>News paper</v>
+      </c>
+      <c r="J9" s="23">
+        <v>5000</v>
+      </c>
+      <c r="K9" s="23">
+        <v>5000</v>
+      </c>
+      <c r="L9" s="23">
+        <v>5000</v>
+      </c>
+      <c r="M9" s="23">
+        <v>5000</v>
+      </c>
+      <c r="N9" s="23">
         <f t="shared" si="2"/>
-        <v>LinkedIn</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19">
-        <f>N7</f>
-        <v>8000</v>
-      </c>
-      <c r="D7" s="19">
         <v>20000</v>
       </c>
-      <c r="E7" s="18">
+      <c r="P9" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>News paper</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="17">
         <v>9.85</v>
       </c>
-      <c r="F7" s="20">
-        <f t="shared" si="0"/>
-        <v>197000</v>
-      </c>
-      <c r="G7" s="19">
-        <f>(C7/F7)*365</f>
+      <c r="F10" s="19">
+        <f t="shared" si="3"/>
+        <v>98500</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="1"/>
         <v>14.82233502538071</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Bitcoin conference</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N7" s="3">
-        <f>SUM(J7:M7)</f>
-        <v>8000</v>
-      </c>
-      <c r="P7" s="3" t="str">
+      <c r="H10" s="14"/>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Email</v>
+      </c>
+      <c r="J10" s="23">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="23">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="23">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="23">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="23">
         <f t="shared" si="2"/>
-        <v>Bitcoin conference</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="19">
-        <f>N8</f>
-        <v>20000</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="18">
-        <v>9.85</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="0"/>
-        <v>24625</v>
-      </c>
-      <c r="G8" s="19">
-        <f>(C8/F8)*365</f>
-        <v>296.4467005076142</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Magazine</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N8" s="3">
-        <f>SUM(J8:M8)</f>
-        <v>20000</v>
-      </c>
-      <c r="P8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Magazine</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="19">
-        <f>N9</f>
-        <v>20000</v>
-      </c>
-      <c r="D9" s="19">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="18">
-        <v>9.85</v>
-      </c>
-      <c r="F9" s="20">
-        <f t="shared" si="0"/>
-        <v>24625</v>
-      </c>
-      <c r="G9" s="19">
-        <f>(C9/F9)*365</f>
-        <v>296.4467005076142</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>News paper</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N9" s="3">
-        <f>SUM(J9:M9)</f>
-        <v>20000</v>
-      </c>
-      <c r="P9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>News paper</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="19">
-        <f>N10</f>
         <v>4000</v>
       </c>
-      <c r="D10" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="18">
-        <v>9.85</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" si="0"/>
-        <v>98500</v>
-      </c>
-      <c r="G10" s="19">
-        <f>(C10/F10)*365</f>
-        <v>14.82233502538071</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="1"/>
+      <c r="P10" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>Email</v>
       </c>
-      <c r="J10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N10" s="3">
-        <f>SUM(J10:M10)</f>
-        <v>4000</v>
-      </c>
-      <c r="P10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Email</v>
-      </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <f>SUM(C3:C10)</f>
         <v>125600</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <f>SUM(D3:D10)</f>
         <v>100000</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="E11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="22">
         <f>SUM(F3:F10)</f>
         <v>985000</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="15"/>
+      <c r="G11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="14"/>
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="24">
         <f>SUM(J3:J10)</f>
         <v>31400</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="24">
         <f>SUM(K3:K10)</f>
         <v>31400</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="24">
         <f>SUM(L3:L10)</f>
         <v>31400</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="24">
         <f>SUM(M3:M10)</f>
         <v>31400</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="24">
         <f>SUM(N3:N10)</f>
         <v>125600</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Total</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="14"/>
       <c r="P12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>*Average annual revenue per user based on data from www.coinbase.com</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
         <v>75000</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="8">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7">
         <f>C13/4</f>
         <v>18750</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="8">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
         <f>C14/4</f>
         <v>4687.5</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="9">
+        <f>C11/12</f>
+        <v>10466.666666666666</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="8">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7">
         <v>100000</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="8">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7">
         <f>C$17*D19</f>
         <v>65000</v>
       </c>
@@ -1308,9 +1398,9 @@
     </row>
     <row r="20" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="8">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7">
         <f>C$17*D20</f>
         <v>20000</v>
       </c>
@@ -1320,9 +1410,9 @@
     </row>
     <row r="21" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="8">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
         <f>C$17*D21</f>
         <v>5000</v>
       </c>
@@ -1332,9 +1422,9 @@
     </row>
     <row r="22" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="8">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7">
         <f>C$17*D22</f>
         <v>10000</v>
       </c>
@@ -1350,33 +1440,249 @@
     </row>
     <row r="25" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="8">
+        <v>27</v>
+      </c>
+      <c r="C25" s="7">
         <v>985500</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="8">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7">
         <f>C17</f>
         <v>100000</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="11">
+        <v>33</v>
+      </c>
+      <c r="C28" s="10">
         <f>C25/C26</f>
         <v>9.8550000000000004</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="10">
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="28">
+        <f>C28/12</f>
+        <v>0.82125000000000004</v>
+      </c>
+      <c r="F30" s="9">
         <v>9.85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D32" s="7">
+        <f>C32</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="E32" s="7">
+        <f>D32*$C$30</f>
+        <v>6843.7500000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7">
+        <f>C32</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D33" s="7">
+        <f>D32+C33</f>
+        <v>16666.666666666668</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" ref="E33:E43" si="6">D33*$C$30</f>
+        <v>13687.500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7">
+        <f>C33</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D34" s="7">
+        <f>D33+C34</f>
+        <v>25000</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="6"/>
+        <v>20531.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7">
+        <f>C34</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D35" s="7">
+        <f>D34+C35</f>
+        <v>33333.333333333336</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="6"/>
+        <v>27375.000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="7">
+        <f>C35</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D36" s="7">
+        <f>D35+C36</f>
+        <v>41666.666666666672</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="6"/>
+        <v>34218.750000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7">
+        <f>C36</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D37" s="7">
+        <f>D36+C37</f>
+        <v>50000.000000000007</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="6"/>
+        <v>41062.500000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7">
+        <f>C37</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D38" s="7">
+        <f>D37+C38</f>
+        <v>58333.333333333343</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="6"/>
+        <v>47906.250000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7">
+        <f>C38</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D39" s="7">
+        <f>D38+C39</f>
+        <v>66666.666666666672</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="6"/>
+        <v>54750.000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" s="7">
+        <f>C39</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D40" s="7">
+        <f>D39+C40</f>
+        <v>75000</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="6"/>
+        <v>61593.75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>10</v>
+      </c>
+      <c r="C41" s="7">
+        <f>C40</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D41" s="7">
+        <f>D40+C41</f>
+        <v>83333.333333333328</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="6"/>
+        <v>68437.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>11</v>
+      </c>
+      <c r="C42" s="7">
+        <f>C41</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D42" s="7">
+        <f>D41+C42</f>
+        <v>91666.666666666657</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="6"/>
+        <v>75281.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>12</v>
+      </c>
+      <c r="C43" s="7">
+        <f>C42</f>
+        <v>8333.3333333333339</v>
+      </c>
+      <c r="D43" s="7">
+        <f>D42+C43</f>
+        <v>99999.999999999985</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="6"/>
+        <v>82124.999999999985</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="7">
+        <f>SUM(E32:E43)</f>
+        <v>533812.5</v>
       </c>
     </row>
   </sheetData>
@@ -1390,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L16"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:L16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1412,229 +1718,257 @@
   <sheetData>
     <row r="1" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="27"/>
+      <c r="E2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="27"/>
+      <c r="H2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="27"/>
+      <c r="K2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>5000</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <v>5000</v>
+      </c>
       <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6">
+        <v>5000</v>
+      </c>
       <c r="K3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6">
+        <v>5000</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>600</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <v>600</v>
+      </c>
       <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6">
+        <v>600</v>
+      </c>
       <c r="K4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6">
+        <v>600</v>
+      </c>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16.190000000000001</v>
+      </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="F5" s="6">
+        <v>16.190000000000001</v>
+      </c>
       <c r="H5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="I5" s="6">
+        <v>16.190000000000001</v>
+      </c>
       <c r="K5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="L5" s="6">
+        <v>16.190000000000001</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C6" s="6">
+        <v>309</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="F6" s="6">
+        <v>309</v>
+      </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="I6" s="6">
+        <v>309</v>
+      </c>
       <c r="K6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="L6" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="27"/>
+      <c r="H10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="K10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="K11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5000</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="6">
+        <v>5000</v>
+      </c>
     </row>
     <row r="12" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>600</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="F12" s="6">
+        <v>600</v>
+      </c>
       <c r="H12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="I12" s="6">
+        <v>600</v>
+      </c>
       <c r="K12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="L12" s="6">
+        <v>600</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>16.190000000000001</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="6">
+        <v>16.190000000000001</v>
+      </c>
       <c r="H13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="I13" s="6">
+        <v>16.190000000000001</v>
+      </c>
       <c r="K13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="L13" s="6">
+        <v>16.190000000000001</v>
+      </c>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C14" s="6">
+        <v>309</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="F14" s="6">
+        <v>309</v>
+      </c>
       <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="I14" s="6">
+        <v>309</v>
+      </c>
       <c r="K14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="K16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="L14" s="6">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1642,10 +1976,10 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
